--- a/Analysis/2kr_analysis/boss_arrival_time_20-25/waiting_time/hard_game_mode/2kr_hard_minion_waiting_time.xlsx
+++ b/Analysis/2kr_analysis/boss_arrival_time_20-25/waiting_time/hard_game_mode/2kr_hard_minion_waiting_time.xlsx
@@ -883,7 +883,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -973,8 +973,8 @@
             <c:trendlineType val="linear"/>
             <c:forward val="0"/>
             <c:backward val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1956,11 +1956,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="25436602"/>
-        <c:axId val="44772542"/>
+        <c:axId val="63884072"/>
+        <c:axId val="72998209"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25436602"/>
+        <c:axId val="63884072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2016,12 +2016,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44772542"/>
+        <c:crossAx val="72998209"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44772542"/>
+        <c:axId val="72998209"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,7 +2086,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25436602"/>
+        <c:crossAx val="63884072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2113,7 +2113,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3172,11 +3172,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="32088559"/>
-        <c:axId val="68179354"/>
+        <c:axId val="53958681"/>
+        <c:axId val="29578456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="32088559"/>
+        <c:axId val="53958681"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3232,12 +3232,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68179354"/>
+        <c:crossAx val="29578456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68179354"/>
+        <c:axId val="29578456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3302,7 +3302,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32088559"/>
+        <c:crossAx val="53958681"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3340,9 +3340,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>523440</xdr:colOff>
+      <xdr:colOff>523080</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3350,8 +3350,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11076480" y="11854080"/>
-        <a:ext cx="7628040" cy="4548960"/>
+        <a:off x="11079000" y="11854080"/>
+        <a:ext cx="7633440" cy="4548600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3370,9 +3370,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>492480</xdr:colOff>
+      <xdr:colOff>492120</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3380,8 +3380,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="28698840" y="11817720"/>
-        <a:ext cx="7048080" cy="4132440"/>
+        <a:off x="28713960" y="11817720"/>
+        <a:ext cx="7052760" cy="4132080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3401,11 +3401,11 @@
   </sheetPr>
   <dimension ref="A1:BP228"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M225" activeCellId="0" sqref="M225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.57"/>
